--- a/output/且慢/03_康世海_且慢.xlsx
+++ b/output/且慢/03_康世海_且慢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>二级债</t>
-  </si>
-  <si>
-    <t>偏债</t>
   </si>
   <si>
     <t>2019112700500254</t>
@@ -1026,10 +1023,10 @@
         <v>512</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1088,10 +1085,10 @@
         <v>411</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1150,10 +1147,10 @@
         <v>512</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1212,10 +1209,10 @@
         <v>512</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1274,10 +1271,10 @@
         <v>411</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1336,10 +1333,10 @@
         <v>411</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1398,10 +1395,10 @@
         <v>512</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1460,10 +1457,10 @@
         <v>512</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1522,10 +1519,10 @@
         <v>411</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1584,10 +1581,10 @@
         <v>411</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1646,10 +1643,10 @@
         <v>512</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1708,10 +1705,10 @@
         <v>512</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1770,10 +1767,10 @@
         <v>411</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1832,10 +1829,10 @@
         <v>512</v>
       </c>
       <c r="S15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1894,10 +1891,10 @@
         <v>512</v>
       </c>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1956,10 +1953,10 @@
         <v>512</v>
       </c>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2012,16 +2009,16 @@
         <v>65</v>
       </c>
       <c r="Q18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R18">
         <v>411</v>
       </c>
       <c r="S18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2080,10 +2077,10 @@
         <v>512</v>
       </c>
       <c r="S19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2142,10 +2139,10 @@
         <v>512</v>
       </c>
       <c r="S20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2204,10 +2201,10 @@
         <v>512</v>
       </c>
       <c r="S21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2266,10 +2263,10 @@
         <v>512</v>
       </c>
       <c r="S22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2328,10 +2325,10 @@
         <v>512</v>
       </c>
       <c r="S23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2384,16 +2381,16 @@
         <v>65</v>
       </c>
       <c r="Q24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R24">
         <v>411</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2452,10 +2449,10 @@
         <v>512</v>
       </c>
       <c r="S25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2508,16 +2505,16 @@
         <v>65</v>
       </c>
       <c r="Q26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R26">
         <v>411</v>
       </c>
       <c r="S26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2576,10 +2573,10 @@
         <v>411</v>
       </c>
       <c r="S27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2638,10 +2635,10 @@
         <v>411</v>
       </c>
       <c r="S28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2700,10 +2697,10 @@
         <v>512</v>
       </c>
       <c r="S29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2762,10 +2759,10 @@
         <v>411</v>
       </c>
       <c r="S30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2824,10 +2821,10 @@
         <v>411</v>
       </c>
       <c r="S31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2886,10 +2883,10 @@
         <v>512</v>
       </c>
       <c r="S32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2948,10 +2945,10 @@
         <v>512</v>
       </c>
       <c r="S33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3010,10 +3007,10 @@
         <v>512</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3072,10 +3069,10 @@
         <v>512</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3134,10 +3131,10 @@
         <v>512</v>
       </c>
       <c r="S36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3196,10 +3193,10 @@
         <v>411</v>
       </c>
       <c r="S37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3258,10 +3255,10 @@
         <v>512</v>
       </c>
       <c r="S38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3320,10 +3317,10 @@
         <v>512</v>
       </c>
       <c r="S39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3382,10 +3379,10 @@
         <v>411</v>
       </c>
       <c r="S40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3444,10 +3441,10 @@
         <v>411</v>
       </c>
       <c r="S41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3506,10 +3503,10 @@
         <v>411</v>
       </c>
       <c r="S42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3568,10 +3565,10 @@
         <v>411</v>
       </c>
       <c r="S43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3630,10 +3627,10 @@
         <v>411</v>
       </c>
       <c r="S44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3692,10 +3689,10 @@
         <v>411</v>
       </c>
       <c r="S45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3754,10 +3751,10 @@
         <v>512</v>
       </c>
       <c r="S46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3816,10 +3813,10 @@
         <v>512</v>
       </c>
       <c r="S47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3878,10 +3875,10 @@
         <v>411</v>
       </c>
       <c r="S48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3940,10 +3937,10 @@
         <v>512</v>
       </c>
       <c r="S49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4002,10 +3999,10 @@
         <v>512</v>
       </c>
       <c r="S50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4064,10 +4061,10 @@
         <v>411</v>
       </c>
       <c r="S51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4126,10 +4123,10 @@
         <v>512</v>
       </c>
       <c r="S52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4188,10 +4185,10 @@
         <v>512</v>
       </c>
       <c r="S53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4250,10 +4247,10 @@
         <v>411</v>
       </c>
       <c r="S54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4312,10 +4309,10 @@
         <v>512</v>
       </c>
       <c r="S55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4374,10 +4371,10 @@
         <v>512</v>
       </c>
       <c r="S56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4436,10 +4433,10 @@
         <v>411</v>
       </c>
       <c r="S57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4498,10 +4495,10 @@
         <v>411</v>
       </c>
       <c r="S58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
